--- a/大学信息技术/期末考试-复习/复习题/第1题/AExcel.xlsx
+++ b/大学信息技术/期末考试-复习/复习题/第1题/AExcel.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\0808下午\excel\AEXCEL\KS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\期末考试-复习\复习题\第1题\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAFDF07-F70A-4BAF-A897-785D7D4E6585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="2985" windowWidth="14370" windowHeight="13005"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$4:$G$15</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>学生成绩统计表</t>
   </si>
@@ -110,11 +125,20 @@
     <t>总分</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>平均值项:语文</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -170,12 +194,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -184,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,26 +242,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,6 +295,2208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[AExcel.xlsx]Sheet2!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>男</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>女</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.833333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5574-4AB5-9590-7EE1D316B792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="367985360"/>
+        <c:axId val="367985688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="367985360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367985688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367985688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367985360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>学生成绩评价</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>期中</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>信息</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BFA-4434-A355-636CAD2CF994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>期末</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>语文</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>数学</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>英语</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>信息</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>体育</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BFA-4434-A355-636CAD2CF994}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366551520"/>
+        <c:axId val="366554144"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="366551520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366554144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366554144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="366551520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="321">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5F2E1D-6146-4945-A244-CF5FBA556690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10FA77F-5945-4CFF-8CCF-1E54961463A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lenovo" refreshedDate="45293.56564872685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12" xr:uid="{9964DB76-CE36-4C9A-B174-CBB3E385F474}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:H14" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="姓名" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="班级" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="性别" numFmtId="0">
+      <sharedItems count="2">
+        <s v="男"/>
+        <s v="女"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="语文" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="62" maxValue="95"/>
+    </cacheField>
+    <cacheField name="数学" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="63" maxValue="92"/>
+    </cacheField>
+    <cacheField name="英语" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="61" maxValue="97"/>
+    </cacheField>
+    <cacheField name="信息" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="62" maxValue="96"/>
+    </cacheField>
+    <cacheField name="体育" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52" maxValue="96"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <s v="张亮"/>
+    <s v="1班"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="88"/>
+    <n v="90"/>
+    <n v="81"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <s v="赵小萌"/>
+    <s v="2班"/>
+    <x v="1"/>
+    <n v="88"/>
+    <n v="71"/>
+    <n v="93"/>
+    <n v="69"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <s v="李晶晶"/>
+    <s v="1班"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="81"/>
+    <n v="93"/>
+    <n v="95"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <s v="吴永青"/>
+    <s v="2班"/>
+    <x v="1"/>
+    <n v="95"/>
+    <n v="66"/>
+    <n v="80"/>
+    <n v="89"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="刘莉"/>
+    <s v="2班"/>
+    <x v="1"/>
+    <n v="62"/>
+    <n v="80"/>
+    <n v="97"/>
+    <n v="90"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <s v="陈辰"/>
+    <s v="2班"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="73"/>
+    <n v="91"/>
+    <n v="89"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <s v="高虎"/>
+    <s v="1班"/>
+    <x v="0"/>
+    <n v="75"/>
+    <n v="63"/>
+    <n v="97"/>
+    <n v="62"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <s v="胡峰"/>
+    <s v="1班"/>
+    <x v="0"/>
+    <n v="76"/>
+    <n v="92"/>
+    <n v="61"/>
+    <n v="92"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <s v="何喜亮"/>
+    <s v="2班"/>
+    <x v="0"/>
+    <n v="64"/>
+    <n v="92"/>
+    <n v="84"/>
+    <n v="62"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <s v="朱明"/>
+    <s v="1班"/>
+    <x v="1"/>
+    <n v="72"/>
+    <n v="83"/>
+    <n v="72"/>
+    <n v="78"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <s v="赵福禄"/>
+    <s v="1班"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="75"/>
+    <n v="96"/>
+    <n v="73"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <s v="王秀丽"/>
+    <s v="2班"/>
+    <x v="1"/>
+    <n v="93"/>
+    <n v="85"/>
+    <n v="71"/>
+    <n v="96"/>
+    <n v="52"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86E64542-C9B2-4839-AEEB-4AE30A6A2971}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A17:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="平均值项:语文" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,11 +2756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,529 +2771,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>83</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="11">
         <v>90</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <v>89</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="11">
         <v>78</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>95</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="11">
         <v>87</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>88</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="11">
         <v>90</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="11">
         <v>81</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>95</v>
       </c>
+      <c r="L4" s="11">
+        <f>SUM(B4:K4)</f>
+        <v>876</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>90</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>82</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>66</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>91</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>84</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="11">
         <v>88</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <v>71</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="11">
         <v>93</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="11">
         <v>69</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>82</v>
       </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L15" si="0">SUM(B5:K5)</f>
+        <v>816</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="11">
         <v>78</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="11">
         <v>90</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <v>96</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="11">
         <v>83</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="11">
         <v>82</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="11">
         <v>75</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <v>81</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="11">
         <v>93</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="11">
         <v>95</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="11">
         <v>74</v>
       </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>847</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="11">
         <v>72</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="11">
         <v>94</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <v>85</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="11">
         <v>71</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <v>73</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="11">
         <v>95</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <v>66</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="11">
         <v>80</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="11">
         <v>89</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>96</v>
       </c>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>821</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>88</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="11">
         <v>92</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>98</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>64</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>82</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="11">
         <v>62</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <v>80</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="11">
         <v>97</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="11">
         <v>90</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>71</v>
       </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>78</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>92</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>74</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>87</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>63</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="11">
         <v>90</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="11">
         <v>73</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="11">
         <v>91</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="11">
         <v>89</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="11">
         <v>74</v>
       </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>93</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>78</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>97</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>98</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>93</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="11">
         <v>75</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <v>63</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="11">
         <v>97</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="11">
         <v>62</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>94</v>
       </c>
+      <c r="L10" s="11">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="11">
         <v>94</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>93</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>83</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11">
         <v>73</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>82</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="11">
         <v>76</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="11">
         <v>92</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="11">
         <v>61</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="11">
         <v>92</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>93</v>
       </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>92</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>63</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>73</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>85</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>62</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="11">
         <v>64</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>92</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="11">
         <v>84</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="11">
         <v>62</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <v>94</v>
       </c>
+      <c r="L12" s="11">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>74</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>92</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>85</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11">
         <v>72</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>99</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="11">
         <v>72</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="11">
         <v>83</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="11">
         <v>72</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="11">
         <v>78</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="11">
         <v>73</v>
       </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>67</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>73</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>53</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>63</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>96</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="11">
         <v>83</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <v>75</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="11">
         <v>96</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="11">
         <v>73</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <v>96</v>
       </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="11">
         <v>82</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>75</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>93</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11">
         <v>71</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="11">
         <v>74</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="11">
         <v>93</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <v>85</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="11">
         <v>71</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="11">
         <v>96</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <v>52</v>
       </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>792</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1367,6 +3688,38 @@
       </c>
       <c r="H14" s="5">
         <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14">
+        <v>79.166666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14">
+        <v>80.833333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="14">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1375,15 +3728,16 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1486,5 +3840,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>